--- a/Companies/Iron & Steel/JSW Steel Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/Iron & Steel/JSW Steel Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>13,710.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14,820.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16,299.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18,958.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>18,465.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>18,958.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16,299.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>14,820.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>13,710.00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>18958</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>13710</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>16450.4</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>127.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>136.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>154.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>741.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>499.00</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>741.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>154.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>136.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>127.00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>741</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>331.4</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>13,837.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14,956.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16,453.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19,699.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>18,964.00</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>19,699.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16,453.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>14,956.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13,837.00</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>19699</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>13837</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>16781.8</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>8,465.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8,244.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9,090.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10,167.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>10,039.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10,167.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9,090.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8,244.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8,465.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>10167</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>8244</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>9201</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>363.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>47.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>325.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>328.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>52.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>328.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>325.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>47.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>363.00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>363</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>223</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-383.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>488.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>207.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-330.00</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>207.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>488.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-383.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>488</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-383</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>16.4</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,097.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,189.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,215.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,270.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,377.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,270.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,215.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,189.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,097.00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1377</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1097</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1229.6</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>325.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>314.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>321.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>356.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>321.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>314.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>325.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>356</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>323.2</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>732.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>772.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>769.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>781.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>819.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>781.00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>769.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>772.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>732.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>819</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>732</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>774.6</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,772.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,761.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,836.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,363.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,648.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,363.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1,836.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,761.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,772.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2648</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1761</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2076</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,466.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2,155.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2,804.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4,262.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>4,003.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4,262.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2,804.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2,155.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,466.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>4262</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1466</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>2938</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>167.00</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>73.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>43.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>49.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>48.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,514.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2,204.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,847.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4,335.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>4,170.00</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4,335.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2,847.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2,204.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,514.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>4335</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1514</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3014</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>907.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>919.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>892.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>873.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>866.00</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>873.00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>892.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>919.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>907.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>919</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>866</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>891.4</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>607.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,285.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,955.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3,462.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>3,304.00</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3,462.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,955.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,285.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>607.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>3462</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>607</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2122.6</v>
       </c>
     </row>
     <row r="19">
@@ -1150,15 +992,6 @@
           <t>--</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>-234</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-234</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>-234</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>607.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,285.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,721.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3,462.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>3,304.00</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3,462.00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,721.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,285.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>607.00</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>3462</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>607</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2075.8</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>188.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>440.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>595.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,227.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>966.00</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,227.00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>595.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>440.00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>188.00</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1227</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>683.2</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>419.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>845.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1,126.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2,235.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>2,338.00</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2,235.00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1,126.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>845.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>419.00</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>2338</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>419</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>1392.6</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>419.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>845.00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1,126.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2,235.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>2,338.00</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2,235.00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1,126.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>845.00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>419.00</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>2338</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>419</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>1392.6</v>
       </c>
     </row>
     <row r="24">
@@ -1332,37 +1129,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>240.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>241.00</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>241.00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>241.00</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>241.00</t>
         </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>240.00</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>240.8</v>
       </c>
     </row>
     <row r="25"/>
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>9.72</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>5.79</v>
       </c>
     </row>
     <row r="28">
@@ -1422,37 +1201,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>9.67</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>5.762</v>
       </c>
     </row>
     <row r="29"/>
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>9.72</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>5.79</v>
       </c>
     </row>
     <row r="32">
@@ -1512,37 +1273,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>9.67</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>5.762</v>
       </c>
     </row>
     <row r="33"/>
